--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/plcy-schd/it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA93EC-B5DF-4DB0-97B6-F21DB44D41D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BC7CD-B464-C34F-80F1-D53570312770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="840" windowWidth="15615" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="680" windowWidth="15620" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -127,13 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,14 +477,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,52 +495,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,12 +548,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -557,12 +561,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -584,14 +588,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/plcy-schd/it/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/plcy-schd/it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BC7CD-B464-C34F-80F1-D53570312770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727ED295-099F-8C4C-957D-03B75CCD0938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="680" windowWidth="15620" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="840" windowWidth="15620" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/plcy-schd/it/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727ED295-099F-8C4C-957D-03B75CCD0938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA93EC-B5DF-4DB0-97B6-F21DB44D41D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="840" windowWidth="15620" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="840" windowWidth="15615" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -127,14 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,17 +476,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -495,52 +491,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -548,12 +544,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -561,12 +557,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -588,14 +584,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
